--- a/Excel/SkillData.xlsx
+++ b/Excel/SkillData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB40328B-538D-4E50-991D-B63EBE344E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19395" windowHeight="10545"/>
+    <workbookView xWindow="1950" yWindow="5715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>James</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -27,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -36,14 +43,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-血量</t>
+技能名称
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,6 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -60,14 +70,17 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-魔法值</t>
+类型
+主动技能 1
+被动技能 2</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,6 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -84,14 +98,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-物理攻击力 近程怪计算</t>
+技能消耗</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,6 +114,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -108,14 +124,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-物理防御力 近程怪计算 对应物理攻击力</t>
+技能CD</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -123,6 +140,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -132,134 +150,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-魔法攻击力 远程怪</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-魔法防御力 针对魔法攻击力</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-命中
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-闪避
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-暴击攻击概率
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-暴击防御概率
-（0.0f - 100.0f)</t>
+描述</t>
         </r>
       </text>
     </comment>
@@ -268,62 +163,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>---</t>
   </si>
   <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PhysicalAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PhysicalDefence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MagicAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MagicDefence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>圣剑随身</t>
   </si>
   <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CritAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CritDefence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>召唤圣剑环绕自身，持续5秒，对周围敌人每秒造成75%物理攻击的伤害</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,6 +370,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -489,6 +378,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -789,170 +679,175 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="42" xr:uid="{7E3A47C6-8CF7-4CC2-A5FB-29DE9AFC79D0}"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -961,6 +856,12 @@
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -974,6 +875,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1022,7 +926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,9 +959,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,6 +1011,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1265,91 +1203,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="73.75" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1368,23 +1277,8 @@
       <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1403,23 +1297,8 @@
       <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1438,23 +1317,8 @@
       <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>60</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1473,23 +1337,8 @@
       <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>60</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1508,23 +1357,8 @@
       <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1543,23 +1377,8 @@
       <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1578,24 +1397,9 @@
       <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>60</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Excel/SkillData.xlsx
+++ b/Excel/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168FBDC0-6CAA-4AE3-B440-C5B0B442FC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B9DBC8-34B0-4437-BF72-FB22189D90B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +581,48 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -828,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +878,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1217,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1276,2118 +1346,2118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1001</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>200</v>
       </c>
-      <c r="C2" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="E2" s="3">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>20</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>20</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>1002</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>200</v>
       </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>20</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>1003</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>250</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>50</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>50</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>1004</v>
       </c>
-      <c r="B5" s="2">
-        <v>300</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="B5" s="3">
+        <v>300</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>1005</v>
       </c>
-      <c r="B6" s="2">
-        <v>300</v>
-      </c>
-      <c r="C6" s="2">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="B6" s="3">
+        <v>300</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>5</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>1006</v>
       </c>
-      <c r="B7" s="2">
-        <v>300</v>
-      </c>
-      <c r="C7" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>4</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="B7" s="5">
+        <v>300</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>1007</v>
       </c>
-      <c r="B8" s="2">
-        <v>300</v>
-      </c>
-      <c r="C8" s="2">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="B8" s="5">
+        <v>300</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>1008</v>
       </c>
-      <c r="B9" s="2">
-        <v>300</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>4</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="B9" s="5">
+        <v>300</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>1009</v>
       </c>
-      <c r="B10" s="2">
-        <v>300</v>
-      </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>4</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="B10" s="5">
+        <v>300</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
         <v>1010</v>
       </c>
-      <c r="B11" s="2">
-        <v>300</v>
-      </c>
-      <c r="C11" s="2">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>4</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="B11" s="5">
+        <v>300</v>
+      </c>
+      <c r="C11" s="5">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>1011</v>
       </c>
-      <c r="B12" s="2">
-        <v>300</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>4</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="B12" s="7">
+        <v>300</v>
+      </c>
+      <c r="C12" s="7">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>1012</v>
       </c>
-      <c r="B13" s="2">
-        <v>300</v>
-      </c>
-      <c r="C13" s="2">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>4</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="B13" s="7">
+        <v>300</v>
+      </c>
+      <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>1013</v>
       </c>
-      <c r="B14" s="2">
-        <v>300</v>
-      </c>
-      <c r="C14" s="2">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>4</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="B14" s="7">
+        <v>300</v>
+      </c>
+      <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>1014</v>
       </c>
-      <c r="B15" s="2">
-        <v>300</v>
-      </c>
-      <c r="C15" s="2">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>4</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="B15" s="7">
+        <v>300</v>
+      </c>
+      <c r="C15" s="7">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>30</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>1015</v>
       </c>
-      <c r="B16" s="2">
-        <v>300</v>
-      </c>
-      <c r="C16" s="2">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>4</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="B16" s="7">
+        <v>300</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
         <v>1016</v>
       </c>
-      <c r="B17" s="2">
-        <v>300</v>
-      </c>
-      <c r="C17" s="2">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>4</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="B17" s="11">
+        <v>300</v>
+      </c>
+      <c r="C17" s="11">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11">
+        <v>30</v>
+      </c>
+      <c r="E17" s="11">
+        <v>30</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>30</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4</v>
+      </c>
+      <c r="O17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
         <v>1017</v>
       </c>
-      <c r="B18" s="2">
-        <v>300</v>
-      </c>
-      <c r="C18" s="2">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>4</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="B18" s="11">
+        <v>300</v>
+      </c>
+      <c r="C18" s="11">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11">
+        <v>30</v>
+      </c>
+      <c r="E18" s="11">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>30</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>4</v>
+      </c>
+      <c r="O18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
         <v>1018</v>
       </c>
-      <c r="B19" s="2">
-        <v>300</v>
-      </c>
-      <c r="C19" s="2">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>4</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="B19" s="11">
+        <v>300</v>
+      </c>
+      <c r="C19" s="11">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11">
+        <v>30</v>
+      </c>
+      <c r="E19" s="11">
+        <v>30</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>30</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>4</v>
+      </c>
+      <c r="O19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
         <v>1019</v>
       </c>
-      <c r="B20" s="2">
-        <v>300</v>
-      </c>
-      <c r="C20" s="2">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>4</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="B20" s="11">
+        <v>300</v>
+      </c>
+      <c r="C20" s="11">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>30</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>4</v>
+      </c>
+      <c r="O20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
         <v>1020</v>
       </c>
-      <c r="B21" s="2">
-        <v>300</v>
-      </c>
-      <c r="C21" s="2">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="B21" s="11">
+        <v>300</v>
+      </c>
+      <c r="C21" s="11">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11">
+        <v>30</v>
+      </c>
+      <c r="E21" s="11">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>30</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>4</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
         <v>1021</v>
       </c>
-      <c r="B22" s="2">
-        <v>300</v>
-      </c>
-      <c r="C22" s="2">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2">
-        <v>30</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>4</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="B22" s="13">
+        <v>300</v>
+      </c>
+      <c r="C22" s="13">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13">
+        <v>30</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>30</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>4</v>
+      </c>
+      <c r="O22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
         <v>1022</v>
       </c>
-      <c r="B23" s="2">
-        <v>300</v>
-      </c>
-      <c r="C23" s="2">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>4</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="B23" s="13">
+        <v>300</v>
+      </c>
+      <c r="C23" s="13">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13">
+        <v>30</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>30</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
+        <v>4</v>
+      </c>
+      <c r="O23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
         <v>1023</v>
       </c>
-      <c r="B24" s="2">
-        <v>300</v>
-      </c>
-      <c r="C24" s="2">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>4</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="B24" s="13">
+        <v>300</v>
+      </c>
+      <c r="C24" s="13">
+        <v>30</v>
+      </c>
+      <c r="D24" s="13">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13">
+        <v>30</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>30</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>4</v>
+      </c>
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
         <v>1024</v>
       </c>
-      <c r="B25" s="2">
-        <v>300</v>
-      </c>
-      <c r="C25" s="2">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>4</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="B25" s="13">
+        <v>300</v>
+      </c>
+      <c r="C25" s="13">
+        <v>30</v>
+      </c>
+      <c r="D25" s="13">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13">
+        <v>30</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>30</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13">
+        <v>4</v>
+      </c>
+      <c r="O25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
         <v>1025</v>
       </c>
-      <c r="B26" s="2">
-        <v>300</v>
-      </c>
-      <c r="C26" s="2">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2">
-        <v>30</v>
-      </c>
-      <c r="E26" s="2">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>4</v>
-      </c>
-      <c r="O26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="B26" s="13">
+        <v>300</v>
+      </c>
+      <c r="C26" s="13">
+        <v>30</v>
+      </c>
+      <c r="D26" s="13">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13">
+        <v>30</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>30</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>4</v>
+      </c>
+      <c r="O26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
         <v>1026</v>
       </c>
-      <c r="B27" s="2">
-        <v>300</v>
-      </c>
-      <c r="C27" s="2">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2">
-        <v>30</v>
-      </c>
-      <c r="E27" s="2">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>4</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="B27" s="9">
+        <v>300</v>
+      </c>
+      <c r="C27" s="9">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9">
+        <v>30</v>
+      </c>
+      <c r="E27" s="9">
+        <v>30</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>30</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>4</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
         <v>1027</v>
       </c>
-      <c r="B28" s="2">
-        <v>300</v>
-      </c>
-      <c r="C28" s="2">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2">
-        <v>30</v>
-      </c>
-      <c r="E28" s="2">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>4</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="B28" s="9">
+        <v>300</v>
+      </c>
+      <c r="C28" s="9">
+        <v>30</v>
+      </c>
+      <c r="D28" s="9">
+        <v>30</v>
+      </c>
+      <c r="E28" s="9">
+        <v>30</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>4</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
         <v>1028</v>
       </c>
-      <c r="B29" s="2">
-        <v>300</v>
-      </c>
-      <c r="C29" s="2">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2">
-        <v>30</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>30</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>4</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="B29" s="9">
+        <v>300</v>
+      </c>
+      <c r="C29" s="9">
+        <v>30</v>
+      </c>
+      <c r="D29" s="9">
+        <v>30</v>
+      </c>
+      <c r="E29" s="9">
+        <v>30</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>30</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>4</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
         <v>1029</v>
       </c>
-      <c r="B30" s="2">
-        <v>300</v>
-      </c>
-      <c r="C30" s="2">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2">
-        <v>30</v>
-      </c>
-      <c r="E30" s="2">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>4</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="B30" s="9">
+        <v>300</v>
+      </c>
+      <c r="C30" s="9">
+        <v>30</v>
+      </c>
+      <c r="D30" s="9">
+        <v>30</v>
+      </c>
+      <c r="E30" s="9">
+        <v>30</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>30</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>4</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
         <v>1030</v>
       </c>
-      <c r="B31" s="2">
-        <v>300</v>
-      </c>
-      <c r="C31" s="2">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>4</v>
-      </c>
-      <c r="O31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="B31" s="9">
+        <v>300</v>
+      </c>
+      <c r="C31" s="9">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9">
+        <v>30</v>
+      </c>
+      <c r="E31" s="9">
+        <v>30</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>30</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>4</v>
+      </c>
+      <c r="O31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
         <v>1031</v>
       </c>
-      <c r="B32" s="2">
-        <v>300</v>
-      </c>
-      <c r="C32" s="2">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2">
-        <v>30</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>4</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="B32" s="15">
+        <v>300</v>
+      </c>
+      <c r="C32" s="15">
+        <v>30</v>
+      </c>
+      <c r="D32" s="15">
+        <v>30</v>
+      </c>
+      <c r="E32" s="15">
+        <v>30</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>30</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>4</v>
+      </c>
+      <c r="O32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
         <v>1032</v>
       </c>
-      <c r="B33" s="2">
-        <v>300</v>
-      </c>
-      <c r="C33" s="2">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2">
-        <v>30</v>
-      </c>
-      <c r="E33" s="2">
-        <v>30</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>4</v>
-      </c>
-      <c r="O33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="B33" s="15">
+        <v>300</v>
+      </c>
+      <c r="C33" s="15">
+        <v>30</v>
+      </c>
+      <c r="D33" s="15">
+        <v>30</v>
+      </c>
+      <c r="E33" s="15">
+        <v>30</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
+        <v>30</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>4</v>
+      </c>
+      <c r="O33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
         <v>1033</v>
       </c>
-      <c r="B34" s="2">
-        <v>300</v>
-      </c>
-      <c r="C34" s="2">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2">
-        <v>30</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>4</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="B34" s="15">
+        <v>300</v>
+      </c>
+      <c r="C34" s="15">
+        <v>30</v>
+      </c>
+      <c r="D34" s="15">
+        <v>30</v>
+      </c>
+      <c r="E34" s="15">
+        <v>30</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15">
+        <v>30</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>4</v>
+      </c>
+      <c r="O34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
         <v>1034</v>
       </c>
-      <c r="B35" s="2">
-        <v>300</v>
-      </c>
-      <c r="C35" s="2">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2">
-        <v>30</v>
-      </c>
-      <c r="E35" s="2">
-        <v>30</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>4</v>
-      </c>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="B35" s="15">
+        <v>300</v>
+      </c>
+      <c r="C35" s="15">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15">
+        <v>30</v>
+      </c>
+      <c r="E35" s="15">
+        <v>30</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1</v>
+      </c>
+      <c r="H35" s="15">
+        <v>30</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>4</v>
+      </c>
+      <c r="O35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
         <v>1035</v>
       </c>
-      <c r="B36" s="2">
-        <v>300</v>
-      </c>
-      <c r="C36" s="2">
-        <v>30</v>
-      </c>
-      <c r="D36" s="2">
-        <v>30</v>
-      </c>
-      <c r="E36" s="2">
-        <v>30</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>4</v>
-      </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="B36" s="15">
+        <v>300</v>
+      </c>
+      <c r="C36" s="15">
+        <v>30</v>
+      </c>
+      <c r="D36" s="15">
+        <v>30</v>
+      </c>
+      <c r="E36" s="15">
+        <v>30</v>
+      </c>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15">
+        <v>30</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>4</v>
+      </c>
+      <c r="O36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
         <v>1036</v>
       </c>
-      <c r="B37" s="2">
-        <v>300</v>
-      </c>
-      <c r="C37" s="2">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2">
-        <v>30</v>
-      </c>
-      <c r="E37" s="2">
-        <v>30</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>4</v>
-      </c>
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="B37" s="11">
+        <v>300</v>
+      </c>
+      <c r="C37" s="11">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11">
+        <v>30</v>
+      </c>
+      <c r="E37" s="11">
+        <v>30</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>30</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>4</v>
+      </c>
+      <c r="O37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
         <v>1037</v>
       </c>
-      <c r="B38" s="2">
-        <v>300</v>
-      </c>
-      <c r="C38" s="2">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2">
-        <v>30</v>
-      </c>
-      <c r="E38" s="2">
-        <v>30</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>4</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="B38" s="11">
+        <v>300</v>
+      </c>
+      <c r="C38" s="11">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11">
+        <v>30</v>
+      </c>
+      <c r="E38" s="11">
+        <v>30</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>30</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>4</v>
+      </c>
+      <c r="O38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
         <v>1038</v>
       </c>
-      <c r="B39" s="2">
-        <v>300</v>
-      </c>
-      <c r="C39" s="2">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2">
-        <v>30</v>
-      </c>
-      <c r="E39" s="2">
-        <v>30</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>4</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="B39" s="11">
+        <v>300</v>
+      </c>
+      <c r="C39" s="11">
+        <v>30</v>
+      </c>
+      <c r="D39" s="11">
+        <v>30</v>
+      </c>
+      <c r="E39" s="11">
+        <v>30</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>30</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0</v>
+      </c>
+      <c r="M39" s="12">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>4</v>
+      </c>
+      <c r="O39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11">
         <v>1039</v>
       </c>
-      <c r="B40" s="2">
-        <v>300</v>
-      </c>
-      <c r="C40" s="2">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2">
-        <v>30</v>
-      </c>
-      <c r="E40" s="2">
-        <v>30</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>4</v>
-      </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="B40" s="11">
+        <v>300</v>
+      </c>
+      <c r="C40" s="11">
+        <v>30</v>
+      </c>
+      <c r="D40" s="11">
+        <v>30</v>
+      </c>
+      <c r="E40" s="11">
+        <v>30</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>30</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>4</v>
+      </c>
+      <c r="O40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11">
         <v>1040</v>
       </c>
-      <c r="B41" s="2">
-        <v>300</v>
-      </c>
-      <c r="C41" s="2">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2">
-        <v>30</v>
-      </c>
-      <c r="E41" s="2">
-        <v>30</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>4</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="B41" s="11">
+        <v>300</v>
+      </c>
+      <c r="C41" s="11">
+        <v>30</v>
+      </c>
+      <c r="D41" s="11">
+        <v>30</v>
+      </c>
+      <c r="E41" s="11">
+        <v>30</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11">
+        <v>30</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>4</v>
+      </c>
+      <c r="O41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15">
         <v>1041</v>
       </c>
-      <c r="B42" s="2">
-        <v>300</v>
-      </c>
-      <c r="C42" s="2">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2">
-        <v>30</v>
-      </c>
-      <c r="E42" s="2">
-        <v>30</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>4</v>
-      </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="B42" s="15">
+        <v>300</v>
+      </c>
+      <c r="C42" s="15">
+        <v>30</v>
+      </c>
+      <c r="D42" s="15">
+        <v>30</v>
+      </c>
+      <c r="E42" s="15">
+        <v>30</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1</v>
+      </c>
+      <c r="H42" s="15">
+        <v>30</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0</v>
+      </c>
+      <c r="K42" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15">
+        <v>4</v>
+      </c>
+      <c r="O42" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
         <v>1042</v>
       </c>
-      <c r="B43" s="2">
-        <v>300</v>
-      </c>
-      <c r="C43" s="2">
-        <v>30</v>
-      </c>
-      <c r="D43" s="2">
-        <v>30</v>
-      </c>
-      <c r="E43" s="2">
-        <v>30</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>4</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="B43" s="15">
+        <v>300</v>
+      </c>
+      <c r="C43" s="15">
+        <v>30</v>
+      </c>
+      <c r="D43" s="15">
+        <v>30</v>
+      </c>
+      <c r="E43" s="15">
+        <v>30</v>
+      </c>
+      <c r="F43" s="15">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1</v>
+      </c>
+      <c r="H43" s="15">
+        <v>30</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>4</v>
+      </c>
+      <c r="O43" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15">
         <v>1043</v>
       </c>
-      <c r="B44" s="2">
-        <v>300</v>
-      </c>
-      <c r="C44" s="2">
-        <v>30</v>
-      </c>
-      <c r="D44" s="2">
-        <v>30</v>
-      </c>
-      <c r="E44" s="2">
-        <v>30</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>4</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="B44" s="15">
+        <v>300</v>
+      </c>
+      <c r="C44" s="15">
+        <v>30</v>
+      </c>
+      <c r="D44" s="15">
+        <v>30</v>
+      </c>
+      <c r="E44" s="15">
+        <v>30</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1</v>
+      </c>
+      <c r="H44" s="15">
+        <v>30</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15">
+        <v>4</v>
+      </c>
+      <c r="O44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15">
         <v>1044</v>
       </c>
-      <c r="B45" s="2">
-        <v>300</v>
-      </c>
-      <c r="C45" s="2">
-        <v>30</v>
-      </c>
-      <c r="D45" s="2">
-        <v>30</v>
-      </c>
-      <c r="E45" s="2">
-        <v>30</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>4</v>
-      </c>
-      <c r="O45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="B45" s="15">
+        <v>300</v>
+      </c>
+      <c r="C45" s="15">
+        <v>30</v>
+      </c>
+      <c r="D45" s="15">
+        <v>30</v>
+      </c>
+      <c r="E45" s="15">
+        <v>30</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="15">
+        <v>30</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>4</v>
+      </c>
+      <c r="O45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
         <v>1045</v>
       </c>
-      <c r="B46" s="2">
-        <v>300</v>
-      </c>
-      <c r="C46" s="2">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2">
-        <v>30</v>
-      </c>
-      <c r="E46" s="2">
-        <v>30</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>4</v>
-      </c>
-      <c r="O46" s="2">
+      <c r="B46" s="15">
+        <v>300</v>
+      </c>
+      <c r="C46" s="15">
+        <v>30</v>
+      </c>
+      <c r="D46" s="15">
+        <v>30</v>
+      </c>
+      <c r="E46" s="15">
+        <v>30</v>
+      </c>
+      <c r="F46" s="15">
+        <v>1</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15">
+        <v>30</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15">
+        <v>4</v>
+      </c>
+      <c r="O46" s="15">
         <v>1</v>
       </c>
     </row>
